--- a/includes/uploads/attendance/excel_sample.xlsx
+++ b/includes/uploads/attendance/excel_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BBADAE-501A-44EC-8BE8-EFAE0105CA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76673CD-150A-403A-BB5A-E4A4A599514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D15B1F96-345D-47EB-B706-511BBD7BD739}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
